--- a/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,209 +452,305 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>630</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>390</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1040</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>320</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45537</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45544</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45551</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45572</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45579</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45621</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B39" t="n">
         <v>280</v>
       </c>
     </row>
@@ -669,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,81 +787,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1320</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1800</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>440</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>420</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>700</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>280</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,691 @@
       </c>
       <c r="B16" t="n">
         <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-161.0832541714354</v>
+      </c>
+      <c r="D2" t="n">
+        <v>352.2386454247885</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-155.4476065709814</v>
+      </c>
+      <c r="D3" t="n">
+        <v>359.8139361912179</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>111</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-148.125759078578</v>
+      </c>
+      <c r="D4" t="n">
+        <v>381.3984711386434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-158.0411168715631</v>
+      </c>
+      <c r="D5" t="n">
+        <v>368.9129765977451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-167.338456843692</v>
+      </c>
+      <c r="D6" t="n">
+        <v>369.9472648611818</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>124</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-121.5467610084868</v>
+      </c>
+      <c r="D7" t="n">
+        <v>377.6330051077099</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-134.9415875754592</v>
+      </c>
+      <c r="D8" t="n">
+        <v>392.6157215238615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>130</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-129.7656068545577</v>
+      </c>
+      <c r="D9" t="n">
+        <v>409.1532189692283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-119.1444838774471</v>
+      </c>
+      <c r="D10" t="n">
+        <v>406.5758677543001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>136</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-133.8693017092854</v>
+      </c>
+      <c r="D11" t="n">
+        <v>395.7346476611111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-131.4449947882444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>398.9002052044934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>142</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-136.8967522049984</v>
+      </c>
+      <c r="D13" t="n">
+        <v>411.6954364933451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-110.2373018402158</v>
+      </c>
+      <c r="D14" t="n">
+        <v>400.7039802698002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>154</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-109.7183059018758</v>
+      </c>
+      <c r="D15" t="n">
+        <v>412.4855947672582</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>158</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-122.8069289675928</v>
+      </c>
+      <c r="D16" t="n">
+        <v>412.4276235866313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>164</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-103.635139640505</v>
+      </c>
+      <c r="D17" t="n">
+        <v>457.4223078809387</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>167</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-101.7662388071602</v>
+      </c>
+      <c r="D18" t="n">
+        <v>434.7002322222405</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>173</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-87.74576863858704</v>
+      </c>
+      <c r="D19" t="n">
+        <v>433.321147785381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>179</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-105.7268301545154</v>
+      </c>
+      <c r="D20" t="n">
+        <v>457.5075624442862</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>182</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-81.48240147034102</v>
+      </c>
+      <c r="D21" t="n">
+        <v>471.0061466701038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>185</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-81.58119115554213</v>
+      </c>
+      <c r="D22" t="n">
+        <v>464.5118902128983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>188</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-71.81217512042819</v>
+      </c>
+      <c r="D23" t="n">
+        <v>480.5196784444874</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>197</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-86.15531796950233</v>
+      </c>
+      <c r="D24" t="n">
+        <v>474.4338570465708</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>204</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-65.23457032270302</v>
+      </c>
+      <c r="D25" t="n">
+        <v>465.7464331009515</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>207</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-45.79987593244207</v>
+      </c>
+      <c r="D26" t="n">
+        <v>474.4269004232962</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>210</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-47.67359284613406</v>
+      </c>
+      <c r="D27" t="n">
+        <v>477.4711941652171</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>216</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-62.94359808334428</v>
+      </c>
+      <c r="D28" t="n">
+        <v>475.1373695155643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>222</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-40.97806386144683</v>
+      </c>
+      <c r="D29" t="n">
+        <v>512.3021327346605</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>225</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-50.31006005744987</v>
+      </c>
+      <c r="D30" t="n">
+        <v>478.882481181762</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>228</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-41.69581632371026</v>
+      </c>
+      <c r="D31" t="n">
+        <v>472.9497759212175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>247</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-25.81042266611511</v>
+      </c>
+      <c r="D32" t="n">
+        <v>518.6382687883157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>259</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.810552700951169</v>
+      </c>
+      <c r="D33" t="n">
+        <v>534.4969419346054</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>262</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-19.98170383241752</v>
+      </c>
+      <c r="D34" t="n">
+        <v>524.2766183278387</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>265</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-13.47892453880151</v>
+      </c>
+      <c r="D35" t="n">
+        <v>532.2750426413132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>274</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.3821048472648</v>
+      </c>
+      <c r="D36" t="n">
+        <v>539.1392102984345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>277</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.876259362627</v>
+      </c>
+      <c r="D37" t="n">
+        <v>558.8467301856571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>283</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.45113846400483</v>
+      </c>
+      <c r="D38" t="n">
+        <v>532.7081232111134</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>296</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30.00785645409023</v>
+      </c>
+      <c r="D39" t="n">
+        <v>570.6052388663635</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>299</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37.73722034356455</v>
+      </c>
+      <c r="D40" t="n">
+        <v>554.2219731692589</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>302</v>
+      </c>
+      <c r="C41" t="n">
+        <v>35.10693610603481</v>
+      </c>
+      <c r="D41" t="n">
+        <v>601.905771041164</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.85982280746453</v>
+      </c>
+      <c r="D42" t="n">
+        <v>555.1329506036952</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>308</v>
+      </c>
+      <c r="C43" t="n">
+        <v>52.92097838976629</v>
+      </c>
+      <c r="D43" t="n">
+        <v>560.8324218768325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>311</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.99789894843342</v>
+      </c>
+      <c r="D44" t="n">
+        <v>577.5506898189988</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>314</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25.74751556694002</v>
+      </c>
+      <c r="D45" t="n">
+        <v>578.5414950090673</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25.09610181546724</v>
+      </c>
+      <c r="D46" t="n">
+        <v>585.3455508873226</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>320</v>
+      </c>
+      <c r="C47" t="n">
+        <v>47.56727876576107</v>
+      </c>
+      <c r="D47" t="n">
+        <v>567.4775972013646</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGC5P7H3_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>93</v>
       </c>
-      <c r="C2" t="n">
-        <v>-161.0832541714354</v>
-      </c>
-      <c r="D2" t="n">
-        <v>352.2386454247885</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>102</v>
       </c>
-      <c r="C3" t="n">
-        <v>-155.4476065709814</v>
-      </c>
-      <c r="D3" t="n">
-        <v>359.8139361912179</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>111</v>
       </c>
-      <c r="C4" t="n">
-        <v>-148.125759078578</v>
-      </c>
-      <c r="D4" t="n">
-        <v>381.3984711386434</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>115</v>
       </c>
-      <c r="C5" t="n">
-        <v>-158.0411168715631</v>
-      </c>
-      <c r="D5" t="n">
-        <v>368.9129765977451</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>118</v>
       </c>
-      <c r="C6" t="n">
-        <v>-167.338456843692</v>
-      </c>
-      <c r="D6" t="n">
-        <v>369.9472648611818</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>124</v>
       </c>
-      <c r="C7" t="n">
-        <v>-121.5467610084868</v>
-      </c>
-      <c r="D7" t="n">
-        <v>377.6330051077099</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>127</v>
       </c>
-      <c r="C8" t="n">
-        <v>-134.9415875754592</v>
-      </c>
-      <c r="D8" t="n">
-        <v>392.6157215238615</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>130</v>
       </c>
-      <c r="C9" t="n">
-        <v>-129.7656068545577</v>
-      </c>
-      <c r="D9" t="n">
-        <v>409.1532189692283</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>133</v>
       </c>
-      <c r="C10" t="n">
-        <v>-119.1444838774471</v>
-      </c>
-      <c r="D10" t="n">
-        <v>406.5758677543001</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>136</v>
       </c>
-      <c r="C11" t="n">
-        <v>-133.8693017092854</v>
-      </c>
-      <c r="D11" t="n">
-        <v>395.7346476611111</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>139</v>
       </c>
-      <c r="C12" t="n">
-        <v>-131.4449947882444</v>
-      </c>
-      <c r="D12" t="n">
-        <v>398.9002052044934</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>142</v>
       </c>
-      <c r="C13" t="n">
-        <v>-136.8967522049984</v>
-      </c>
-      <c r="D13" t="n">
-        <v>411.6954364933451</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>151</v>
       </c>
-      <c r="C14" t="n">
-        <v>-110.2373018402158</v>
-      </c>
-      <c r="D14" t="n">
-        <v>400.7039802698002</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>154</v>
       </c>
-      <c r="C15" t="n">
-        <v>-109.7183059018758</v>
-      </c>
-      <c r="D15" t="n">
-        <v>412.4855947672582</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>158</v>
       </c>
-      <c r="C16" t="n">
-        <v>-122.8069289675928</v>
-      </c>
-      <c r="D16" t="n">
-        <v>412.4276235866313</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>164</v>
       </c>
-      <c r="C17" t="n">
-        <v>-103.635139640505</v>
-      </c>
-      <c r="D17" t="n">
-        <v>457.4223078809387</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>167</v>
       </c>
-      <c r="C18" t="n">
-        <v>-101.7662388071602</v>
-      </c>
-      <c r="D18" t="n">
-        <v>434.7002322222405</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>173</v>
       </c>
-      <c r="C19" t="n">
-        <v>-87.74576863858704</v>
-      </c>
-      <c r="D19" t="n">
-        <v>433.321147785381</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>179</v>
       </c>
-      <c r="C20" t="n">
-        <v>-105.7268301545154</v>
-      </c>
-      <c r="D20" t="n">
-        <v>457.5075624442862</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>182</v>
       </c>
-      <c r="C21" t="n">
-        <v>-81.48240147034102</v>
-      </c>
-      <c r="D21" t="n">
-        <v>471.0061466701038</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>185</v>
       </c>
-      <c r="C22" t="n">
-        <v>-81.58119115554213</v>
-      </c>
-      <c r="D22" t="n">
-        <v>464.5118902128983</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>188</v>
       </c>
-      <c r="C23" t="n">
-        <v>-71.81217512042819</v>
-      </c>
-      <c r="D23" t="n">
-        <v>480.5196784444874</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>197</v>
       </c>
-      <c r="C24" t="n">
-        <v>-86.15531796950233</v>
-      </c>
-      <c r="D24" t="n">
-        <v>474.4338570465708</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>204</v>
       </c>
-      <c r="C25" t="n">
-        <v>-65.23457032270302</v>
-      </c>
-      <c r="D25" t="n">
-        <v>465.7464331009515</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>207</v>
       </c>
-      <c r="C26" t="n">
-        <v>-45.79987593244207</v>
-      </c>
-      <c r="D26" t="n">
-        <v>474.4269004232962</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>210</v>
       </c>
-      <c r="C27" t="n">
-        <v>-47.67359284613406</v>
-      </c>
-      <c r="D27" t="n">
-        <v>477.4711941652171</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>216</v>
       </c>
-      <c r="C28" t="n">
-        <v>-62.94359808334428</v>
-      </c>
-      <c r="D28" t="n">
-        <v>475.1373695155643</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>222</v>
       </c>
-      <c r="C29" t="n">
-        <v>-40.97806386144683</v>
-      </c>
-      <c r="D29" t="n">
-        <v>512.3021327346605</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>225</v>
       </c>
-      <c r="C30" t="n">
-        <v>-50.31006005744987</v>
-      </c>
-      <c r="D30" t="n">
-        <v>478.882481181762</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>228</v>
       </c>
-      <c r="C31" t="n">
-        <v>-41.69581632371026</v>
-      </c>
-      <c r="D31" t="n">
-        <v>472.9497759212175</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>247</v>
       </c>
-      <c r="C32" t="n">
-        <v>-25.81042266611511</v>
-      </c>
-      <c r="D32" t="n">
-        <v>518.6382687883157</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>259</v>
       </c>
-      <c r="C33" t="n">
-        <v>-8.810552700951169</v>
-      </c>
-      <c r="D33" t="n">
-        <v>534.4969419346054</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>262</v>
       </c>
-      <c r="C34" t="n">
-        <v>-19.98170383241752</v>
-      </c>
-      <c r="D34" t="n">
-        <v>524.2766183278387</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>265</v>
       </c>
-      <c r="C35" t="n">
-        <v>-13.47892453880151</v>
-      </c>
-      <c r="D35" t="n">
-        <v>532.2750426413132</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>274</v>
       </c>
-      <c r="C36" t="n">
-        <v>6.3821048472648</v>
-      </c>
-      <c r="D36" t="n">
-        <v>539.1392102984345</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>277</v>
       </c>
-      <c r="C37" t="n">
-        <v>14.876259362627</v>
-      </c>
-      <c r="D37" t="n">
-        <v>558.8467301856571</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>283</v>
       </c>
-      <c r="C38" t="n">
-        <v>12.45113846400483</v>
-      </c>
-      <c r="D38" t="n">
-        <v>532.7081232111134</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>296</v>
       </c>
-      <c r="C39" t="n">
-        <v>30.00785645409023</v>
-      </c>
-      <c r="D39" t="n">
-        <v>570.6052388663635</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>299</v>
       </c>
-      <c r="C40" t="n">
-        <v>37.73722034356455</v>
-      </c>
-      <c r="D40" t="n">
-        <v>554.2219731692589</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>302</v>
       </c>
-      <c r="C41" t="n">
-        <v>35.10693610603481</v>
-      </c>
-      <c r="D41" t="n">
-        <v>601.905771041164</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>305</v>
       </c>
-      <c r="C42" t="n">
-        <v>38.85982280746453</v>
-      </c>
-      <c r="D42" t="n">
-        <v>555.1329506036952</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>308</v>
       </c>
-      <c r="C43" t="n">
-        <v>52.92097838976629</v>
-      </c>
-      <c r="D43" t="n">
-        <v>560.8324218768325</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>311</v>
       </c>
-      <c r="C44" t="n">
-        <v>26.99789894843342</v>
-      </c>
-      <c r="D44" t="n">
-        <v>577.5506898189988</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>314</v>
       </c>
-      <c r="C45" t="n">
-        <v>25.74751556694002</v>
-      </c>
-      <c r="D45" t="n">
-        <v>578.5414950090673</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1570,12 +1296,6 @@
       <c r="B46" t="n">
         <v>317</v>
       </c>
-      <c r="C46" t="n">
-        <v>25.09610181546724</v>
-      </c>
-      <c r="D46" t="n">
-        <v>585.3455508873226</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1583,12 +1303,6 @@
       </c>
       <c r="B47" t="n">
         <v>320</v>
-      </c>
-      <c r="C47" t="n">
-        <v>47.56727876576107</v>
-      </c>
-      <c r="D47" t="n">
-        <v>567.4775972013646</v>
       </c>
     </row>
   </sheetData>
